--- a/RawData/animdatadyn_master.xlsx
+++ b/RawData/animdatadyn_master.xlsx
@@ -4986,4 +4986,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+    <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
+    <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DE16EE-A536-4D61-9DB7-1B2FA41A8EE7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8DC841-598F-4500-9A9B-0D00951DD4A3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5F9FC4-83A8-487E-8C3F-2639FF88F3EC}"/>
 </file>
--- a/RawData/animdatadyn_master.xlsx
+++ b/RawData/animdatadyn_master.xlsx
@@ -4989,8 +4989,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -5011,6 +5011,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5075,6 +5077,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="28b28469-8996-4088-bd89-44d87d6385e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5104,6 +5113,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{68644ca3-003b-4e0e-bb82-ecd3a2033107}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5216,12 +5236,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DE16EE-A536-4D61-9DB7-1B2FA41A8EE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C56988-D9A5-4168-B56B-6659C345D66E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/RawData/animdatadyn_master.xlsx
+++ b/RawData/animdatadyn_master.xlsx
@@ -4989,8 +4989,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -5011,6 +5011,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5075,6 +5077,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="28b28469-8996-4088-bd89-44d87d6385e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5104,6 +5113,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{68644ca3-003b-4e0e-bb82-ecd3a2033107}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5216,12 +5236,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DE16EE-A536-4D61-9DB7-1B2FA41A8EE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB1799C2-71A5-413C-8340-976D8A8567D6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/RawData/animdatadyn_master.xlsx
+++ b/RawData/animdatadyn_master.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malgren/Documents/Mines/N_P/NANI_NAPI/CSNAPNIv1/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365.sharepoint.com/sites/CostelloLab/Shared Documents/CSNAPNI/CSNAPNI/CBW-CSNAPNI/CB_CSNAPNI/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B80CCE-116C-844D-BE10-4FAC3F887167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8820" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animdatadyn_master" sheetId="4" r:id="rId1"/>
     <sheet name="animdatadyn" sheetId="5" r:id="rId2"/>
     <sheet name="animdatadyn_key" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="9.9999961093999445E-6"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1104,10 +1104,10 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -1116,7 +1116,7 @@
     <col min="12" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1">
@@ -1192,7 +1192,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>566308425.18025994</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>1186638604.50807</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>85090930.645422593</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1482435927.3092999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>266771866.50216401</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>9762908.2682210598</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>34083871.797779299</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>1127451194.8545101</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>236818204.62098801</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>2126503885.3385799</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>225406283.72866601</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>25687884.827433199</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>82177286.962325305</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>32436080.986745499</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>988065987.12227499</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>91588090.252486393</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>162643434.57635301</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -2937,82 +2937,82 @@
         <v>3523608.7490194999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
     </row>
   </sheetData>
@@ -3028,9 +3028,9 @@
       <selection sqref="A1:W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="11">
         <v>2.5</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>0</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>0</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2.25</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>0</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>0</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>0</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>0</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>0</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>0</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>0</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>0</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>0</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>0</v>
       </c>
@@ -4419,9 +4419,9 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -4743,7 +4743,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>37</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>39</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -4855,7 +4855,7 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -4989,8 +4989,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcac96711073587df0b68b080c708180">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98209c71c39a5a5ad103d397a60c957b" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -5013,6 +5033,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5083,6 +5104,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
@@ -5225,34 +5251,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB1799C2-71A5-413C-8340-976D8A8567D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5F9FC4-83A8-487E-8C3F-2639FF88F3EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
+    <ds:schemaRef ds:uri="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8DC841-598F-4500-9A9B-0D00951DD4A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8DC841-598F-4500-9A9B-0D00951DD4A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5F9FC4-83A8-487E-8C3F-2639FF88F3EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F675939-44A8-40A4-8780-324D8C040B42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
+    <ds:schemaRef ds:uri="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RawData/animdatadyn_master.xlsx
+++ b/RawData/animdatadyn_master.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/lds5498_psu_edu/Documents/CSNAPNI/CSNAPNI/CBW-CSNAPNI/CB_CSNAPNI/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E30DB14B9EDAFFA1F00858210F051D885B68AE5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3CAA9CC-A477-403E-8C80-89E4B249A017}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_E30DB14B9EDAFFA1F00858210F051D885B68AE5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{095B91CA-B4C3-4DEE-B217-6C52CA61684D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animdatadyn_master" sheetId="1" r:id="rId1"/>
-    <sheet name="animdatadyn" sheetId="2" r:id="rId2"/>
-    <sheet name="animdatadyn_key" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="animdatadyn" sheetId="2" r:id="rId3"/>
+    <sheet name="animdatadyn_key" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>Type</t>
   </si>
@@ -229,7 +230,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +257,14 @@
         <fgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,11 +294,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -419,6 +446,54 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,15 +801,15 @@
   </sheetPr>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K11"/>
+    <sheetView topLeftCell="O9" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11" style="41" hidden="1" customWidth="1"/>
+    <col min="3" max="9" width="11" style="41" customWidth="1"/>
     <col min="10" max="10" width="11" style="42" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" style="43" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="41" bestFit="1" customWidth="1"/>
@@ -3231,6 +3306,723 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FB9E45-30CA-4FC2-ADDE-E4F683EE8F2A}">
+  <dimension ref="B2:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="52">
+        <v>1</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="51">
+        <v>50.3</v>
+      </c>
+      <c r="E3" s="52">
+        <v>48</v>
+      </c>
+      <c r="F3" s="51">
+        <v>19.2</v>
+      </c>
+      <c r="G3" s="52">
+        <v>10</v>
+      </c>
+      <c r="H3" s="53">
+        <v>463</v>
+      </c>
+      <c r="I3" s="54">
+        <v>0.42200000000000004</v>
+      </c>
+      <c r="J3" s="54">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K3" s="53">
+        <v>2910</v>
+      </c>
+      <c r="L3" s="54">
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="52">
+        <v>2</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="51">
+        <v>233.85</v>
+      </c>
+      <c r="E4" s="52">
+        <v>150.63</v>
+      </c>
+      <c r="F4" s="52">
+        <v>26</v>
+      </c>
+      <c r="G4" s="52">
+        <v>10</v>
+      </c>
+      <c r="H4" s="53">
+        <v>10068.67</v>
+      </c>
+      <c r="I4" s="53">
+        <v>1</v>
+      </c>
+      <c r="J4" s="54">
+        <v>4.96E-3</v>
+      </c>
+      <c r="K4" s="53">
+        <v>610</v>
+      </c>
+      <c r="L4" s="54">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="52">
+        <v>3</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="51">
+        <v>13.8</v>
+      </c>
+      <c r="E5" s="51">
+        <v>9.1</v>
+      </c>
+      <c r="F5" s="51">
+        <v>4.7</v>
+      </c>
+      <c r="G5" s="52">
+        <v>10</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0</v>
+      </c>
+      <c r="I5" s="53">
+        <v>0</v>
+      </c>
+      <c r="J5" s="53">
+        <v>0</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0</v>
+      </c>
+      <c r="L5" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="52">
+        <v>4</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="52">
+        <v>24</v>
+      </c>
+      <c r="E6" s="51">
+        <v>5.8</v>
+      </c>
+      <c r="F6" s="52">
+        <v>3</v>
+      </c>
+      <c r="G6" s="52">
+        <v>10</v>
+      </c>
+      <c r="H6" s="53">
+        <v>112</v>
+      </c>
+      <c r="I6" s="54">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J6" s="54">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="K6" s="53">
+        <v>4720</v>
+      </c>
+      <c r="L6" s="54">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="52">
+        <v>5</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="52">
+        <v>10</v>
+      </c>
+      <c r="H7" s="54">
+        <v>14.5</v>
+      </c>
+      <c r="I7" s="54">
+        <v>0.89</v>
+      </c>
+      <c r="J7" s="54">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="K7" s="53">
+        <v>1430</v>
+      </c>
+      <c r="L7" s="54">
+        <v>125.60000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="52">
+        <v>6</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="51">
+        <v>2.1</v>
+      </c>
+      <c r="E8" s="51">
+        <v>1.7</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="52">
+        <v>10</v>
+      </c>
+      <c r="H8" s="53">
+        <v>0</v>
+      </c>
+      <c r="I8" s="53">
+        <v>0</v>
+      </c>
+      <c r="J8" s="53">
+        <v>0</v>
+      </c>
+      <c r="K8" s="53">
+        <v>0</v>
+      </c>
+      <c r="L8" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="52">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="52">
+        <v>10</v>
+      </c>
+      <c r="H9" s="53">
+        <v>0</v>
+      </c>
+      <c r="I9" s="53">
+        <v>0</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0</v>
+      </c>
+      <c r="L9" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="52">
+        <v>8</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="52">
+        <v>10</v>
+      </c>
+      <c r="H10" s="54">
+        <v>1.71</v>
+      </c>
+      <c r="I10" s="54">
+        <v>0.69</v>
+      </c>
+      <c r="J10" s="54">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="K10" s="53">
+        <v>2130</v>
+      </c>
+      <c r="L10" s="54">
+        <v>183.29999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="52">
+        <v>9</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="51">
+        <v>2.1</v>
+      </c>
+      <c r="E11" s="51">
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="52">
+        <v>10</v>
+      </c>
+      <c r="H11" s="54">
+        <v>8.51</v>
+      </c>
+      <c r="I11" s="54">
+        <v>0.79</v>
+      </c>
+      <c r="J11" s="54">
+        <v>2.9300000000000003E-2</v>
+      </c>
+      <c r="K11" s="53">
+        <v>1570</v>
+      </c>
+      <c r="L11" s="54">
+        <v>203.70000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="52">
+        <v>10</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="51">
+        <v>60.9</v>
+      </c>
+      <c r="E12" s="51">
+        <v>59.8</v>
+      </c>
+      <c r="F12" s="51">
+        <v>4.8</v>
+      </c>
+      <c r="G12" s="52">
+        <v>10</v>
+      </c>
+      <c r="H12" s="53">
+        <v>0</v>
+      </c>
+      <c r="I12" s="53">
+        <v>0</v>
+      </c>
+      <c r="J12" s="53">
+        <v>0</v>
+      </c>
+      <c r="K12" s="53">
+        <v>0</v>
+      </c>
+      <c r="L12" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="52">
+        <v>11</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="51">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E13" s="51">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="52">
+        <v>10</v>
+      </c>
+      <c r="H13" s="53">
+        <v>0</v>
+      </c>
+      <c r="I13" s="53">
+        <v>0</v>
+      </c>
+      <c r="J13" s="53">
+        <v>0</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0</v>
+      </c>
+      <c r="L13" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="52">
+        <v>12</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="51">
+        <v>10.6</v>
+      </c>
+      <c r="E14" s="51">
+        <v>6.7</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="52">
+        <v>10</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53">
+        <v>0</v>
+      </c>
+      <c r="J14" s="53">
+        <v>0</v>
+      </c>
+      <c r="K14" s="53">
+        <v>0</v>
+      </c>
+      <c r="L14" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="52">
+        <v>13</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="51">
+        <v>40.5</v>
+      </c>
+      <c r="E15" s="51">
+        <v>28.2</v>
+      </c>
+      <c r="F15" s="51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G15" s="52">
+        <v>10</v>
+      </c>
+      <c r="H15" s="53">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53">
+        <v>0</v>
+      </c>
+      <c r="J15" s="53">
+        <v>0</v>
+      </c>
+      <c r="K15" s="53">
+        <v>0</v>
+      </c>
+      <c r="L15" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="52">
+        <v>14</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="51">
+        <v>43.5</v>
+      </c>
+      <c r="E16" s="51">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F16" s="51">
+        <v>2.7</v>
+      </c>
+      <c r="G16" s="52">
+        <v>10</v>
+      </c>
+      <c r="H16" s="53">
+        <v>0</v>
+      </c>
+      <c r="I16" s="53">
+        <v>0</v>
+      </c>
+      <c r="J16" s="53">
+        <v>0</v>
+      </c>
+      <c r="K16" s="53">
+        <v>0</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="52">
+        <v>15</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="51">
+        <v>37.6</v>
+      </c>
+      <c r="E17" s="51">
+        <v>26.6</v>
+      </c>
+      <c r="F17" s="51">
+        <v>10.6</v>
+      </c>
+      <c r="G17" s="52">
+        <v>10</v>
+      </c>
+      <c r="H17" s="53">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53">
+        <v>0</v>
+      </c>
+      <c r="J17" s="53">
+        <v>0</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0</v>
+      </c>
+      <c r="L17" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="52">
+        <v>16</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="51">
+        <v>37.6</v>
+      </c>
+      <c r="E18" s="51">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F18" s="51">
+        <v>7.4</v>
+      </c>
+      <c r="G18" s="52">
+        <v>10</v>
+      </c>
+      <c r="H18" s="53">
+        <v>0</v>
+      </c>
+      <c r="I18" s="53">
+        <v>0</v>
+      </c>
+      <c r="J18" s="53">
+        <v>0</v>
+      </c>
+      <c r="K18" s="53">
+        <v>0</v>
+      </c>
+      <c r="L18" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="52">
+        <v>17</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="51">
+        <v>14.5</v>
+      </c>
+      <c r="E19" s="51">
+        <v>8.4</v>
+      </c>
+      <c r="F19" s="51">
+        <v>5.6</v>
+      </c>
+      <c r="G19" s="52">
+        <v>10</v>
+      </c>
+      <c r="H19" s="54">
+        <v>44.6</v>
+      </c>
+      <c r="I19" s="54">
+        <v>0.498</v>
+      </c>
+      <c r="J19" s="54">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K19" s="53">
+        <v>2670</v>
+      </c>
+      <c r="L19" s="54">
+        <v>168.79999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="52">
+        <v>18</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="51">
+        <v>44.8</v>
+      </c>
+      <c r="E20" s="52">
+        <v>40</v>
+      </c>
+      <c r="F20" s="51">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G20" s="52">
+        <v>10</v>
+      </c>
+      <c r="H20" s="53">
+        <v>0</v>
+      </c>
+      <c r="I20" s="53">
+        <v>0</v>
+      </c>
+      <c r="J20" s="53">
+        <v>0</v>
+      </c>
+      <c r="K20" s="53">
+        <v>0</v>
+      </c>
+      <c r="L20" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="56">
+        <v>19</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="55">
+        <v>5.97</v>
+      </c>
+      <c r="E21" s="56">
+        <v>5</v>
+      </c>
+      <c r="F21" s="55">
+        <v>5.26</v>
+      </c>
+      <c r="G21" s="56">
+        <v>10</v>
+      </c>
+      <c r="H21" s="57">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="I21" s="57">
+        <v>0.498</v>
+      </c>
+      <c r="J21" s="57">
+        <v>3.296052948641745E-2</v>
+      </c>
+      <c r="K21" s="58">
+        <v>1090</v>
+      </c>
+      <c r="L21" s="58">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4633,14 +5425,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4650,7 +5442,7 @@
     <col min="21" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
